--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/SignalIndicator_Ruby.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/SignalIndicator_Ruby.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -63,43 +63,7 @@
     <t>Signal showIcon all property</t>
   </si>
   <si>
-    <t>wait(3);
-validate1;
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0851_home_xpath);
-SwitchApp(WEBVIEW);
-link_Click(signal_test_link);
-validate2;
-SelectTestToRun(VT200_0851_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-TakeScreenshot(VT200-0851);
-validate4;
-wait(2);
-TakeScreenshot(VT200-0851);</t>
-  </si>
-  <si>
     <t>Signal Indicator-Ruby-4.0</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual Compliance Ruby Specs
-};
-validate2
-{
-validate_PageTitle=Signal Ruby Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0851
-};
-validate4
-{
-validate_Screenshot=VT200-0851
-};</t>
   </si>
   <si>
     <t>validate1
@@ -155,14 +119,46 @@
 checkCallbackValues(rubysignalStrength_xpath);</t>
   </si>
   <si>
-    <t>Pass</t>
+    <t>validate1
+{
+validate_PageTitle=Manual Compliance Ruby Specs
+};
+validate2
+{
+validate_PageTitle=Signal Ruby Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0851
+};
+validate4
+{
+validate_Screenshot=VT200-0851
+validate_Iconposition=signalview_xpath,left,20
+validate_Iconposition=signalview_xpath,top,40
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0851_home_xpath);
+SwitchApp(WEBVIEW);
+link_Click(signal_test_link);
+validate2;
+SelectTestToRun(VT200_0851_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+TakeScreenshot(VT200-0851);
+validate4;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -556,17 +552,17 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="37.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.02265625" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="37.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="35.25" thickBot="1">
@@ -602,7 +598,7 @@
       </c>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="192" thickBot="1">
+    <row r="2" spans="1:11" ht="203.25" thickBot="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -610,9 +606,11 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
@@ -620,10 +618,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>11</v>
@@ -649,15 +647,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
   </sheetData>
